--- a/biology/Origine et évolution du vivant/Isolement_post-zygotique/Isolement_post-zygotique.xlsx
+++ b/biology/Origine et évolution du vivant/Isolement_post-zygotique/Isolement_post-zygotique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'isolement post-zygotique fait partie de l'isolement reproductif. C'est un mécanisme qui empêche ou limite fortement l'hybridation de deux espèces qui habitent la même région.
 </t>
@@ -511,9 +523,11 @@
           <t>Stérilité des hybrides</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les hybrides ne produisent pas de gamètes fonctionnels cela peut s'expliquer par  l'absence de méiose chez deux individus différents. Cette stérilité est dû au manque de chromosomes. Ils présentent un mélange de caractéristiques génétiques des deux parents[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les hybrides ne produisent pas de gamètes fonctionnels cela peut s'expliquer par  l'absence de méiose chez deux individus différents. Cette stérilité est dû au manque de chromosomes. Ils présentent un mélange de caractéristiques génétiques des deux parents.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Déchéance des hybrides</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un hybride est généralement stérile. Il est en effet si et seulement si leurs parents ont le même type et nombre de chromosomes[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un hybride est généralement stérile. Il est en effet si et seulement si leurs parents ont le même type et nombre de chromosomes.
 </t>
         </is>
       </c>
